--- a/BackTest/2020-01-14 BackTest DVP.xlsx
+++ b/BackTest/2020-01-14 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1166,6 +1191,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1209,6 +1235,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,6 +1277,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1289,6 +1317,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1332,6 +1361,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1375,6 +1405,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1416,6 +1447,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1457,6 +1489,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1498,6 +1531,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1539,6 +1573,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1566,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
@@ -1580,6 +1615,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1621,6 +1657,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1648,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -1662,6 +1699,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1703,6 +1741,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1744,6 +1783,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1785,6 +1825,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1826,6 +1867,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1867,6 +1909,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1908,6 +1951,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1949,6 +1993,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1990,6 +2035,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2031,6 +2077,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2072,6 +2119,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2113,6 +2161,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2154,6 +2203,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2195,6 +2245,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2236,6 +2287,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2277,6 +2329,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2318,6 +2371,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2359,6 +2413,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2400,6 +2455,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2441,6 +2497,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2482,6 +2539,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2523,6 +2581,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2564,6 +2623,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2605,6 +2665,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2646,6 +2707,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2687,6 +2749,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2728,6 +2791,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2769,6 +2833,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2810,6 +2875,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2851,6 +2917,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2892,6 +2959,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2933,6 +3001,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2974,6 +3043,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3015,6 +3085,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3056,6 +3127,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3097,6 +3169,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3138,6 +3211,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3179,6 +3253,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3220,6 +3295,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3261,6 +3337,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3302,6 +3379,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3343,6 +3421,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3384,6 +3463,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3425,6 +3505,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3466,6 +3547,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3507,6 +3589,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3548,6 +3631,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3589,6 +3673,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3630,6 +3715,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3671,6 +3757,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3712,6 +3799,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3753,6 +3841,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3794,6 +3883,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3835,6 +3925,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3876,6 +3967,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3917,6 +4009,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3958,6 +4051,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3999,6 +4093,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4040,6 +4135,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4081,6 +4177,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4122,6 +4219,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4163,6 +4261,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4204,6 +4303,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4245,6 +4345,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4286,6 +4387,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4327,6 +4429,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4368,6 +4471,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4409,6 +4513,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4450,6 +4555,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4491,6 +4597,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4532,6 +4639,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4573,6 +4681,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4616,6 +4725,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4659,6 +4769,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4700,6 +4811,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4741,6 +4853,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4782,6 +4895,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4823,6 +4937,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4864,6 +4979,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4905,6 +5021,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4946,6 +5063,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4989,6 +5107,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5030,6 +5149,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5073,6 +5193,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5116,6 +5237,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5159,6 +5281,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5202,6 +5325,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest DVP.xlsx
+++ b/BackTest/2020-01-14 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>800595.8441000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>840204.7812361686</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>938241.1308000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>937914.8301000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>955176.6690000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>881135.1332000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>881245.1332000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>881133.1332000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>881132.1332000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>864215.2478000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>864215.2478000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>864325.2478000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>666123.0613000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>665995.6313</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>667018.4335</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>667018.4335</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>184445.0082000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>184565.0082000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>184452.0082000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>184572.0082000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>183560.1776000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>182507.0005000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>182507.0005000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>182507.0005000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>183293.0005000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>4838.608700000099</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>1321.708300000098</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>1321.708300000098</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>1321.708300000098</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,19 @@
         <v>1439.391300000098</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>4.44</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.44</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4052,23 @@
         <v>1715.854300000098</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>4.443</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4095,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4134,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4167,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4200,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,1384 +4233,1234 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>4.493</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2193.7495</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-17643.2268999999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.398</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.384</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.398</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.384</v>
+      </c>
+      <c r="F118" t="n">
+        <v>26627.7347</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-44270.9615999999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>570</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-43700.9615999999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F120" t="n">
+        <v>75450.96550000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>31750.00390000011</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F121" t="n">
+        <v>34592.8831</v>
+      </c>
+      <c r="G121" t="n">
+        <v>31750.00390000011</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22516</v>
+      </c>
+      <c r="G122" t="n">
+        <v>31750.00390000011</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F123" t="n">
+        <v>113</v>
+      </c>
+      <c r="G123" t="n">
+        <v>31637.00390000011</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.535</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.535</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>41637.00390000011</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.537</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.537</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.537</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.537</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>42637.00390000011</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.536</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.537</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.537</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.536</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>42637.00390000011</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>4.537</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E117" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2193.7495</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-17643.2268999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="F127" t="n">
+        <v>113</v>
+      </c>
+      <c r="G127" t="n">
+        <v>42524.00390000011</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.398</v>
-      </c>
-      <c r="C118" t="n">
-        <v>4.384</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4.398</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4.384</v>
-      </c>
-      <c r="F118" t="n">
-        <v>26627.7347</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-44270.9615999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="F128" t="n">
+        <v>512.7522</v>
+      </c>
+      <c r="G128" t="n">
+        <v>42524.00390000011</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C119" t="n">
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
         <v>4.43</v>
       </c>
-      <c r="D119" t="n">
+      <c r="C129" t="n">
         <v>4.43</v>
       </c>
-      <c r="E119" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F119" t="n">
-        <v>570</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-43700.9615999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>4.384</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="D129" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F129" t="n">
+        <v>113</v>
+      </c>
+      <c r="G129" t="n">
+        <v>42411.00390000011</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>4.43</v>
       </c>
-      <c r="C120" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E120" t="n">
+      <c r="C130" t="n">
         <v>4.43</v>
       </c>
-      <c r="F120" t="n">
-        <v>75450.96550000001</v>
-      </c>
-      <c r="G120" t="n">
-        <v>31750.00390000011</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
+      <c r="D130" t="n">
         <v>4.43</v>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="E130" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4289.692</v>
+      </c>
+      <c r="G130" t="n">
+        <v>42411.00390000011</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E121" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F121" t="n">
-        <v>34592.8831</v>
-      </c>
-      <c r="G121" t="n">
-        <v>31750.00390000011</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="F131" t="n">
+        <v>115</v>
+      </c>
+      <c r="G131" t="n">
+        <v>42296.00390000011</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="D122" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F122" t="n">
-        <v>22516</v>
-      </c>
-      <c r="G122" t="n">
-        <v>31750.00390000011</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19885</v>
+      </c>
+      <c r="G132" t="n">
+        <v>42296.00390000011</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F123" t="n">
-        <v>113</v>
-      </c>
-      <c r="G123" t="n">
-        <v>31637.00390000011</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F133" t="n">
+        <v>66902.63529999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-24606.63139999989</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4.535</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4.535</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>41637.00390000011</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F134" t="n">
+        <v>160357.2374</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-184963.8687999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.537</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4.537</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4.537</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4.537</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G125" t="n">
-        <v>42637.00390000011</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="F135" t="n">
+        <v>91468.7613</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-93495.10749999991</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.536</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4.537</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4.537</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4.536</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>42637.00390000011</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>794.2988</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-92700.80869999991</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="F137" t="n">
+        <v>625.7522</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-92075.0564999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" t="n">
         <v>4.431</v>
       </c>
-      <c r="C127" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="F127" t="n">
-        <v>113</v>
-      </c>
-      <c r="G127" t="n">
-        <v>42524.00390000011</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="F128" t="n">
-        <v>512.7522</v>
-      </c>
-      <c r="G128" t="n">
-        <v>42524.00390000011</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="F138" t="n">
+        <v>74.2478</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-92075.0564999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F129" t="n">
-        <v>113</v>
-      </c>
-      <c r="G129" t="n">
-        <v>42411.00390000011</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F139" t="n">
+        <v>206</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-92281.0564999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F130" t="n">
-        <v>4289.692</v>
-      </c>
-      <c r="G130" t="n">
-        <v>42411.00390000011</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.361</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.361</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2155.8385</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-90125.21799999991</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="D131" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="E131" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="F131" t="n">
-        <v>115</v>
-      </c>
-      <c r="G131" t="n">
-        <v>42296.00390000011</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2488.0631</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-87637.15489999991</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="F132" t="n">
-        <v>19885</v>
-      </c>
-      <c r="G132" t="n">
-        <v>42296.00390000011</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="F142" t="n">
+        <v>115</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-87752.15489999991</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F133" t="n">
-        <v>66902.63529999999</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-24606.63139999989</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="F143" t="n">
+        <v>315.0187</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-87437.13619999991</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C134" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F134" t="n">
-        <v>160357.2374</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-184963.8687999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="F144" t="n">
+        <v>115</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-87552.13619999991</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="D135" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="F135" t="n">
-        <v>91468.7613</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-93495.10749999991</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="F145" t="n">
+        <v>9044.1837</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-78507.95249999991</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="D136" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="E136" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F136" t="n">
-        <v>794.2988</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-92700.80869999991</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="F146" t="n">
+        <v>115</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-78622.95249999991</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" t="n">
+        <v>4.499</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="D137" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="F137" t="n">
-        <v>625.7522</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-92075.0564999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.362</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.362</v>
+      </c>
+      <c r="F147" t="n">
+        <v>40494.2216</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-119117.1740999999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="C138" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="D138" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="E138" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="F138" t="n">
-        <v>74.2478</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-92075.0564999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.498</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.498</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.498</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.498</v>
+      </c>
+      <c r="F148" t="n">
+        <v>284.3676</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-118832.8064999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" t="n">
+        <v>4.362</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D139" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="E139" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F139" t="n">
-        <v>206</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-92281.0564999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F149" t="n">
+        <v>511061.5026</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-629894.3091</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4.361</v>
-      </c>
-      <c r="D140" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E140" t="n">
-        <v>4.361</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2155.8385</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-90125.21799999991</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D141" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2488.0631</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-87637.15489999991</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="C142" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="D142" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="E142" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="F142" t="n">
-        <v>115</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-87752.15489999991</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="C143" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="D143" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="E143" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="F143" t="n">
-        <v>315.0187</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-87437.13619999991</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="C144" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="D144" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="E144" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="F144" t="n">
-        <v>115</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-87552.13619999991</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>4.364</v>
-      </c>
-      <c r="C145" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="D145" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="E145" t="n">
-        <v>4.364</v>
-      </c>
-      <c r="F145" t="n">
-        <v>9044.1837</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-78507.95249999991</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>4.364</v>
-      </c>
-      <c r="C146" t="n">
-        <v>4.364</v>
-      </c>
-      <c r="D146" t="n">
-        <v>4.364</v>
-      </c>
-      <c r="E146" t="n">
-        <v>4.364</v>
-      </c>
-      <c r="F146" t="n">
-        <v>115</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-78622.95249999991</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="C147" t="n">
-        <v>4.362</v>
-      </c>
-      <c r="D147" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="E147" t="n">
-        <v>4.362</v>
-      </c>
-      <c r="F147" t="n">
-        <v>40494.2216</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-119117.1740999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4.364</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>4.498</v>
-      </c>
-      <c r="C148" t="n">
-        <v>4.498</v>
-      </c>
-      <c r="D148" t="n">
-        <v>4.498</v>
-      </c>
-      <c r="E148" t="n">
-        <v>4.498</v>
-      </c>
-      <c r="F148" t="n">
-        <v>284.3676</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-118832.8064999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4.362</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C149" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="D149" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E149" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F149" t="n">
-        <v>511061.5026</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-629894.3091</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4.498</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest DVP.xlsx
+++ b/BackTest/2020-01-14 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>800595.8441000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>840204.7812361686</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>938241.1308000002</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>937914.8301000001</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>955176.6690000001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>881135.1332000002</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>881245.1332000002</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>881133.1332000002</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>881132.1332000002</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>864215.2478000001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>864215.2478000001</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>864325.2478000001</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>666123.0613000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>665995.6313</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>667018.4335</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>667018.4335</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>184445.0082000001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>184565.0082000001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>184452.0082000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>184572.0082000001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>183560.1776000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>182507.0005000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>182507.0005000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>182507.0005000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>183293.0005000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>4838.608700000099</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1321.708300000098</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1321.708300000098</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1321.708300000098</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,14 +4015,10 @@
         <v>1439.391300000098</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
@@ -4052,19 +4048,11 @@
         <v>1715.854300000098</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>4.443</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4096,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4231,7 +4213,7 @@
         <v>-17643.2268999999</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,7 +4246,7 @@
         <v>-17643.2268999999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4279,7 @@
         <v>-44270.9615999999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4312,7 @@
         <v>-43700.9615999999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4363,7 +4345,7 @@
         <v>31750.00390000011</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4396,7 +4378,7 @@
         <v>31750.00390000011</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4462,7 +4444,7 @@
         <v>31637.00390000011</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4528,7 +4510,7 @@
         <v>42637.00390000011</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4561,327 +4543,303 @@
         <v>42637.00390000011</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>4.537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="F127" t="n">
+        <v>113</v>
+      </c>
+      <c r="G127" t="n">
+        <v>42524.00390000011</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="F128" t="n">
+        <v>512.7522</v>
+      </c>
+      <c r="G128" t="n">
+        <v>42524.00390000011</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F129" t="n">
+        <v>113</v>
+      </c>
+      <c r="G129" t="n">
+        <v>42411.00390000011</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4289.692</v>
+      </c>
+      <c r="G130" t="n">
+        <v>42411.00390000011</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="F131" t="n">
+        <v>115</v>
+      </c>
+      <c r="G131" t="n">
+        <v>42296.00390000011</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19885</v>
+      </c>
+      <c r="G132" t="n">
+        <v>42296.00390000011</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F133" t="n">
+        <v>66902.63529999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-24606.63139999989</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F134" t="n">
+        <v>160357.2374</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-184963.8687999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="F127" t="n">
-        <v>113</v>
-      </c>
-      <c r="G127" t="n">
-        <v>42524.00390000011</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="F128" t="n">
-        <v>512.7522</v>
-      </c>
-      <c r="G128" t="n">
-        <v>42524.00390000011</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F129" t="n">
-        <v>113</v>
-      </c>
-      <c r="G129" t="n">
-        <v>42411.00390000011</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F130" t="n">
-        <v>4289.692</v>
-      </c>
-      <c r="G130" t="n">
-        <v>42411.00390000011</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="D131" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="E131" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="F131" t="n">
-        <v>115</v>
-      </c>
-      <c r="G131" t="n">
-        <v>42296.00390000011</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="F132" t="n">
-        <v>19885</v>
-      </c>
-      <c r="G132" t="n">
-        <v>42296.00390000011</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F133" t="n">
-        <v>66902.63529999999</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-24606.63139999989</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C134" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F134" t="n">
-        <v>160357.2374</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-184963.8687999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4910,12 +4868,14 @@
         <v>-93495.10749999991</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>4.33</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4949,12 +4909,14 @@
         <v>-92700.80869999991</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>4.356</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4988,12 +4950,14 @@
         <v>-92075.0564999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>4.431</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5027,12 +4991,14 @@
         <v>-92075.0564999999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>4.527</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5068,8 +5034,12 @@
       <c r="H139" t="n">
         <v>1</v>
       </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5103,12 +5073,14 @@
         <v>-90125.21799999991</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>4.36</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5144,8 +5116,12 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>4.361</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5182,7 +5158,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5218,8 +5196,12 @@
       <c r="H143" t="n">
         <v>1</v>
       </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="J143" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5253,12 +5235,12 @@
         <v>-87552.13619999991</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5292,10 +5274,14 @@
         <v>-78507.95249999991</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5329,12 +5315,14 @@
         <v>-78622.95249999991</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>4.499</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,12 +5356,14 @@
         <v>-119117.1740999999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>4.364</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5407,12 +5397,14 @@
         <v>-118832.8064999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>4.362</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5446,10 +5438,14 @@
         <v>-629894.3091</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4.498</v>
+      </c>
+      <c r="J149" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5461,6 +5457,6 @@
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest DVP.xlsx
+++ b/BackTest/2020-01-14 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>699155.5639000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>703745.3269000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>641098.1311000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>641098.1311000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>639595.8441000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>800595.8441000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>938241.1308000002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>881135.1332000002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -4708,14 +4708,10 @@
         <v>42296.00390000011</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J131" t="n">
-        <v>4.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4745,224 +4741,194 @@
         <v>42296.00390000011</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F133" t="n">
+        <v>66902.63529999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-24606.63139999989</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F134" t="n">
+        <v>160357.2374</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-184963.8687999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
         <v>4.356</v>
       </c>
-      <c r="J132" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K132" t="inlineStr">
+      <c r="C135" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="F135" t="n">
+        <v>91468.7613</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-93495.10749999991</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>794.2988</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-92700.80869999991</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F133" t="n">
-        <v>66902.63529999999</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-24606.63139999989</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="J133" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K133" t="inlineStr">
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.527</v>
+      </c>
+      <c r="F137" t="n">
+        <v>625.7522</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-92075.0564999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C134" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F134" t="n">
-        <v>160357.2374</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-184963.8687999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="D135" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="F135" t="n">
-        <v>91468.7613</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-93495.10749999991</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="D136" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="E136" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F136" t="n">
-        <v>794.2988</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-92700.80869999991</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="D137" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="F137" t="n">
-        <v>625.7522</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-92075.0564999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>4.431</v>
-      </c>
-      <c r="J137" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4991,19 +4957,11 @@
         <v>-92075.0564999999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="J138" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5032,19 +4990,11 @@
         <v>-92281.0564999999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>4.527</v>
-      </c>
-      <c r="J139" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5073,19 +5023,11 @@
         <v>-90125.21799999991</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J140" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5114,19 +5056,11 @@
         <v>-87637.15489999991</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4.361</v>
-      </c>
-      <c r="J141" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5158,14 +5092,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5194,19 +5122,11 @@
         <v>-87437.13619999991</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="J143" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5238,14 +5158,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5274,19 +5188,11 @@
         <v>-78507.95249999991</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4.363</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5315,19 +5221,11 @@
         <v>-78622.95249999991</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>4.499</v>
-      </c>
-      <c r="J146" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5356,19 +5254,11 @@
         <v>-119117.1740999999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>4.364</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5397,19 +5287,11 @@
         <v>-118832.8064999999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>4.362</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5438,25 +5320,17 @@
         <v>-629894.3091</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4.498</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest DVP.xlsx
+++ b/BackTest/2020-01-14 BackTest DVP.xlsx
@@ -451,7 +451,7 @@
         <v>706756.2073000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>699155.5639000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>703745.3269000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>641098.1311000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>641098.1311000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>639595.8441000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>800595.8441000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>839918.5601361686</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>939657.1406000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>938241.1308000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>937914.8301000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>955176.6690000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>881135.1332000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>881133.1332000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -4807,11 +4807,17 @@
         <v>-184963.8687999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.35</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4845,10 +4851,12 @@
       <c r="I135" t="n">
         <v>4.33</v>
       </c>
-      <c r="J135" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4882,12 +4890,10 @@
       <c r="I136" t="n">
         <v>4.356</v>
       </c>
-      <c r="J136" t="n">
-        <v>4.33</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4918,15 +4924,15 @@
         <v>-92075.0564999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -4961,7 +4967,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4994,7 +5004,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5027,7 +5041,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5060,7 +5078,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5093,7 +5115,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5126,7 +5152,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5159,7 +5189,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5192,7 +5226,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5225,7 +5263,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5258,7 +5300,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5291,7 +5337,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5324,7 +5374,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest DVP.xlsx
+++ b/BackTest/2020-01-14 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>12585.988</v>
       </c>
       <c r="G2" t="n">
-        <v>706756.2073000002</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>7504.6125</v>
       </c>
       <c r="G3" t="n">
-        <v>699251.5948000002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>110</v>
       </c>
       <c r="G4" t="n">
-        <v>699361.5948000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>8125.5454</v>
       </c>
       <c r="G5" t="n">
-        <v>699361.5948000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>206.0309</v>
       </c>
       <c r="G6" t="n">
-        <v>699155.5639000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4589.763</v>
       </c>
       <c r="G7" t="n">
-        <v>703745.3269000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>62647.1958</v>
       </c>
       <c r="G8" t="n">
-        <v>641098.1311000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>18616.6091</v>
       </c>
       <c r="G9" t="n">
-        <v>641098.1311000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1502.287</v>
       </c>
       <c r="G10" t="n">
-        <v>639595.8441000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>161000</v>
       </c>
       <c r="G11" t="n">
-        <v>800595.8441000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>42451.93993616842</v>
       </c>
       <c r="G12" t="n">
-        <v>843047.7840361686</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1100</v>
       </c>
       <c r="G13" t="n">
-        <v>844147.7840361686</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>4229.2239</v>
       </c>
       <c r="G14" t="n">
-        <v>839918.5601361686</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>286.2211</v>
       </c>
       <c r="G15" t="n">
-        <v>840204.7812361686</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>188</v>
       </c>
       <c r="G16" t="n">
-        <v>840016.7812361686</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>110</v>
       </c>
       <c r="G17" t="n">
-        <v>840126.7812361686</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>21345.5533</v>
       </c>
       <c r="G18" t="n">
-        <v>840126.7812361686</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>49539.6236</v>
       </c>
       <c r="G19" t="n">
-        <v>889666.4048361686</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>49990.73576383158</v>
       </c>
       <c r="G20" t="n">
-        <v>939657.1406000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>26027.06833616842</v>
       </c>
       <c r="G21" t="n">
-        <v>939657.1406000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>30095.77476383158</v>
       </c>
       <c r="G22" t="n">
-        <v>939657.1406000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>43004.16053616842</v>
       </c>
       <c r="G23" t="n">
-        <v>939657.1406000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1416.0098</v>
       </c>
       <c r="G24" t="n">
-        <v>938241.1308000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>326.3007</v>
       </c>
       <c r="G25" t="n">
-        <v>937914.8301000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>17261.8389</v>
       </c>
       <c r="G26" t="n">
-        <v>955176.6690000001</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>74041.5358</v>
       </c>
       <c r="G27" t="n">
-        <v>881135.1332000002</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>110</v>
       </c>
       <c r="G28" t="n">
-        <v>881245.1332000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>112</v>
       </c>
       <c r="G29" t="n">
-        <v>881133.1332000002</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>110</v>
       </c>
       <c r="G30" t="n">
-        <v>881243.1332000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>111</v>
       </c>
       <c r="G31" t="n">
-        <v>881132.1332000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>110</v>
       </c>
       <c r="G32" t="n">
-        <v>881242.1332000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>17026.8854</v>
       </c>
       <c r="G33" t="n">
-        <v>864215.2478000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>16070.0911</v>
       </c>
       <c r="G34" t="n">
-        <v>864215.2478000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>110</v>
       </c>
       <c r="G35" t="n">
-        <v>864325.2478000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>15266.5866</v>
       </c>
       <c r="G36" t="n">
-        <v>849058.6612000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>83393.7295</v>
       </c>
       <c r="G37" t="n">
-        <v>765664.9317000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>51667.8541</v>
       </c>
       <c r="G38" t="n">
-        <v>765664.9317000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>80000</v>
       </c>
       <c r="G39" t="n">
-        <v>685664.9317000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>100000</v>
       </c>
       <c r="G40" t="n">
-        <v>785664.9317000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>111</v>
       </c>
       <c r="G41" t="n">
-        <v>785553.9317000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>155003.5625</v>
       </c>
       <c r="G42" t="n">
-        <v>630550.3692000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>110</v>
       </c>
       <c r="G43" t="n">
-        <v>630660.3692000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>92151.30070000001</v>
       </c>
       <c r="G44" t="n">
-        <v>538509.0685000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>587.4603</v>
       </c>
       <c r="G45" t="n">
-        <v>538509.0685000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>160791.8165</v>
       </c>
       <c r="G46" t="n">
-        <v>699300.885</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>33030.7605</v>
       </c>
       <c r="G47" t="n">
-        <v>666270.1245</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>49360.3435</v>
       </c>
       <c r="G48" t="n">
-        <v>666270.1245</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>34870.7081</v>
       </c>
       <c r="G49" t="n">
-        <v>701140.8326000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>38809.5539</v>
       </c>
       <c r="G50" t="n">
-        <v>662331.2787000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>95414.35000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>662331.2787000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>43553.2038</v>
       </c>
       <c r="G52" t="n">
-        <v>662331.2787000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>141155.3242</v>
       </c>
       <c r="G53" t="n">
-        <v>521175.9545000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>3305.6153</v>
       </c>
       <c r="G54" t="n">
-        <v>517870.3392000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>83349.5453</v>
       </c>
       <c r="G55" t="n">
-        <v>434520.7939000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>45265.3779</v>
       </c>
       <c r="G56" t="n">
-        <v>479786.1718000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2196.0381</v>
       </c>
       <c r="G57" t="n">
-        <v>479786.1718000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>6933.1734</v>
       </c>
       <c r="G58" t="n">
-        <v>486719.3452000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>179423.7161</v>
       </c>
       <c r="G59" t="n">
-        <v>666143.0613000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>130</v>
       </c>
       <c r="G60" t="n">
-        <v>666273.0613000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>150</v>
       </c>
       <c r="G61" t="n">
-        <v>666123.0613000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>127.43</v>
       </c>
       <c r="G62" t="n">
-        <v>665995.6313</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>905.3662</v>
       </c>
       <c r="G63" t="n">
-        <v>666900.9975000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>117.436</v>
       </c>
       <c r="G64" t="n">
-        <v>667018.4335</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>893.8474</v>
       </c>
       <c r="G65" t="n">
-        <v>667018.4335</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>336.9426</v>
       </c>
       <c r="G66" t="n">
-        <v>667018.4335</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1563.1568</v>
       </c>
       <c r="G67" t="n">
-        <v>667018.4335</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>2729.2016</v>
       </c>
       <c r="G68" t="n">
-        <v>669747.6351000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>30478.4224</v>
       </c>
       <c r="G69" t="n">
-        <v>639269.2127</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>11100.351</v>
       </c>
       <c r="G70" t="n">
-        <v>628168.8617</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>200706.1112</v>
       </c>
       <c r="G71" t="n">
-        <v>628168.8617</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>74802.4739</v>
       </c>
       <c r="G72" t="n">
-        <v>553366.3878</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,19 @@
         <v>3000</v>
       </c>
       <c r="G73" t="n">
-        <v>553366.3878</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>4.44</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.44</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2607,21 @@
         <v>54058</v>
       </c>
       <c r="G74" t="n">
-        <v>553366.3878</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2643,21 @@
         <v>243491.2089</v>
       </c>
       <c r="G75" t="n">
-        <v>553366.3878</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2679,15 @@
         <v>20000</v>
       </c>
       <c r="G76" t="n">
-        <v>553366.3878</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2709,15 @@
         <v>40790.4046</v>
       </c>
       <c r="G77" t="n">
-        <v>553366.3878</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2739,15 @@
         <v>11147.2961</v>
       </c>
       <c r="G78" t="n">
-        <v>553366.3878</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2769,15 @@
         <v>117840.7549</v>
       </c>
       <c r="G79" t="n">
-        <v>435525.6329</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2799,15 @@
         <v>17702.3963</v>
       </c>
       <c r="G80" t="n">
-        <v>435525.6329</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2829,15 @@
         <v>156025.7961</v>
       </c>
       <c r="G81" t="n">
-        <v>279499.8368</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2859,15 @@
         <v>75847.96369999999</v>
       </c>
       <c r="G82" t="n">
-        <v>279499.8368</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2889,15 @@
         <v>279992.5636</v>
       </c>
       <c r="G83" t="n">
-        <v>559492.4004</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2919,15 @@
         <v>300214.2594</v>
       </c>
       <c r="G84" t="n">
-        <v>259278.1410000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2949,15 @@
         <v>613.0565</v>
       </c>
       <c r="G85" t="n">
-        <v>259891.1975000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2979,15 @@
         <v>73783.8216</v>
       </c>
       <c r="G86" t="n">
-        <v>186107.3759000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3009,15 @@
         <v>536.7732999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>186644.1492000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3039,15 @@
         <v>663.2267000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>186644.1492000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3069,15 @@
         <v>611.2773</v>
       </c>
       <c r="G89" t="n">
-        <v>186032.8719000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3099,15 @@
         <v>1587.8637</v>
       </c>
       <c r="G90" t="n">
-        <v>184445.0082000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3129,15 @@
         <v>120</v>
       </c>
       <c r="G91" t="n">
-        <v>184565.0082000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3159,15 @@
         <v>113</v>
       </c>
       <c r="G92" t="n">
-        <v>184452.0082000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3189,15 @@
         <v>120</v>
       </c>
       <c r="G93" t="n">
-        <v>184572.0082000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3219,15 @@
         <v>1011.8306</v>
       </c>
       <c r="G94" t="n">
-        <v>183560.1776000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3249,15 @@
         <v>1053.1771</v>
       </c>
       <c r="G95" t="n">
-        <v>182507.0005000001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3279,15 @@
         <v>3224.3665</v>
       </c>
       <c r="G96" t="n">
-        <v>182507.0005000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3309,15 @@
         <v>3440.4491</v>
       </c>
       <c r="G97" t="n">
-        <v>182507.0005000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3339,21 @@
         <v>900</v>
       </c>
       <c r="G98" t="n">
-        <v>183407.0005000001</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3375,19 @@
         <v>114</v>
       </c>
       <c r="G99" t="n">
-        <v>183293.0005000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3409,19 @@
         <v>53044.0087</v>
       </c>
       <c r="G100" t="n">
-        <v>130248.9918000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3443,19 @@
         <v>5000</v>
       </c>
       <c r="G101" t="n">
-        <v>130248.9918000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3477,21 @@
         <v>6886.5103</v>
       </c>
       <c r="G102" t="n">
-        <v>137135.5021000001</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>4.427</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3513,21 @@
         <v>107409.8934</v>
       </c>
       <c r="G103" t="n">
-        <v>29725.6087000001</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>4.488</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3549,19 @@
         <v>25000</v>
       </c>
       <c r="G104" t="n">
-        <v>4725.608700000099</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3583,21 @@
         <v>113</v>
       </c>
       <c r="G105" t="n">
-        <v>4838.608700000099</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>4.426</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3619,19 @@
         <v>5847.3005</v>
       </c>
       <c r="G106" t="n">
-        <v>-1008.691799999901</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3653,19 @@
         <v>2330.4001</v>
       </c>
       <c r="G107" t="n">
-        <v>1321.708300000098</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3687,19 @@
         <v>6332.6704</v>
       </c>
       <c r="G108" t="n">
-        <v>1321.708300000098</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3721,19 @@
         <v>1047.7542</v>
       </c>
       <c r="G109" t="n">
-        <v>1321.708300000098</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3755,19 @@
         <v>117.683</v>
       </c>
       <c r="G110" t="n">
-        <v>1439.391300000098</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3789,19 @@
         <v>276.463</v>
       </c>
       <c r="G111" t="n">
-        <v>1715.854300000098</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3823,19 @@
         <v>153.6116</v>
       </c>
       <c r="G112" t="n">
-        <v>1869.465900000098</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3857,19 @@
         <v>614.8629</v>
       </c>
       <c r="G113" t="n">
-        <v>1254.603000000098</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3891,19 @@
         <v>7007.1127</v>
       </c>
       <c r="G114" t="n">
-        <v>-5752.509699999901</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3925,19 @@
         <v>115</v>
       </c>
       <c r="G115" t="n">
-        <v>-5637.509699999901</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3959,19 @@
         <v>12005.7172</v>
       </c>
       <c r="G116" t="n">
-        <v>-17643.2268999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3993,19 @@
         <v>2193.7495</v>
       </c>
       <c r="G117" t="n">
-        <v>-17643.2268999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4027,19 @@
         <v>26627.7347</v>
       </c>
       <c r="G118" t="n">
-        <v>-44270.9615999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4061,19 @@
         <v>570</v>
       </c>
       <c r="G119" t="n">
-        <v>-43700.9615999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4095,19 @@
         <v>75450.96550000001</v>
       </c>
       <c r="G120" t="n">
-        <v>31750.00390000011</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4129,19 @@
         <v>34592.8831</v>
       </c>
       <c r="G121" t="n">
-        <v>31750.00390000011</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4163,19 @@
         <v>22516</v>
       </c>
       <c r="G122" t="n">
-        <v>31750.00390000011</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4197,19 @@
         <v>113</v>
       </c>
       <c r="G123" t="n">
-        <v>31637.00390000011</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4231,19 @@
         <v>10000</v>
       </c>
       <c r="G124" t="n">
-        <v>41637.00390000011</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4265,19 @@
         <v>1000</v>
       </c>
       <c r="G125" t="n">
-        <v>42637.00390000011</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4299,19 @@
         <v>1000</v>
       </c>
       <c r="G126" t="n">
-        <v>42637.00390000011</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4333,19 @@
         <v>113</v>
       </c>
       <c r="G127" t="n">
-        <v>42524.00390000011</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4367,19 @@
         <v>512.7522</v>
       </c>
       <c r="G128" t="n">
-        <v>42524.00390000011</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4401,19 @@
         <v>113</v>
       </c>
       <c r="G129" t="n">
-        <v>42411.00390000011</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4435,19 @@
         <v>4289.692</v>
       </c>
       <c r="G130" t="n">
-        <v>42411.00390000011</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4469,19 @@
         <v>115</v>
       </c>
       <c r="G131" t="n">
-        <v>42296.00390000011</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4503,19 @@
         <v>19885</v>
       </c>
       <c r="G132" t="n">
-        <v>42296.00390000011</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4537,19 @@
         <v>66902.63529999999</v>
       </c>
       <c r="G133" t="n">
-        <v>-24606.63139999989</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,24 +4571,19 @@
         <v>160357.2374</v>
       </c>
       <c r="G134" t="n">
-        <v>-184963.8687999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4843,24 +4605,21 @@
         <v>91468.7613</v>
       </c>
       <c r="G135" t="n">
-        <v>-93495.10749999991</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
         <v>4.33</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4882,24 +4641,21 @@
         <v>794.2988</v>
       </c>
       <c r="G136" t="n">
-        <v>-92700.80869999991</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
         <v>4.356</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4921,24 +4677,21 @@
         <v>625.7522</v>
       </c>
       <c r="G137" t="n">
-        <v>-92075.0564999999</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
         <v>4.431</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4960,22 +4713,19 @@
         <v>74.2478</v>
       </c>
       <c r="G138" t="n">
-        <v>-92075.0564999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4997,22 +4747,19 @@
         <v>206</v>
       </c>
       <c r="G139" t="n">
-        <v>-92281.0564999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5034,22 +4781,19 @@
         <v>2155.8385</v>
       </c>
       <c r="G140" t="n">
-        <v>-90125.21799999991</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5071,22 +4815,19 @@
         <v>2488.0631</v>
       </c>
       <c r="G141" t="n">
-        <v>-87637.15489999991</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5108,22 +4849,19 @@
         <v>115</v>
       </c>
       <c r="G142" t="n">
-        <v>-87752.15489999991</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5145,22 +4883,19 @@
         <v>315.0187</v>
       </c>
       <c r="G143" t="n">
-        <v>-87437.13619999991</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5182,22 +4917,19 @@
         <v>115</v>
       </c>
       <c r="G144" t="n">
-        <v>-87552.13619999991</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5219,22 +4951,19 @@
         <v>9044.1837</v>
       </c>
       <c r="G145" t="n">
-        <v>-78507.95249999991</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5256,22 +4985,19 @@
         <v>115</v>
       </c>
       <c r="G146" t="n">
-        <v>-78622.95249999991</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5293,22 +5019,19 @@
         <v>40494.2216</v>
       </c>
       <c r="G147" t="n">
-        <v>-119117.1740999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5330,22 +5053,19 @@
         <v>284.3676</v>
       </c>
       <c r="G148" t="n">
-        <v>-118832.8064999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5367,22 +5087,19 @@
         <v>511061.5026</v>
       </c>
       <c r="G149" t="n">
-        <v>-629894.3091</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
